--- a/biology/Botanique/Forêt_de_Pineto/Forêt_de_Pineto.xlsx
+++ b/biology/Botanique/Forêt_de_Pineto/Forêt_de_Pineto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Pineto</t>
+          <t>Forêt_de_Pineto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt de Pineto est un massif forestier de Haute-Corse, au centre de la Corse. Elle occupe une superficie de 160,16 hectares[1]. C'est une forêt territoirale, propriété de la Collectivité territoriale de Corse.
+La forêt de Pineto est un massif forestier de Haute-Corse, au centre de la Corse. Elle occupe une superficie de 160,16 hectares. C'est une forêt territoirale, propriété de la Collectivité territoriale de Corse.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Pineto</t>
+          <t>Forêt_de_Pineto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Pineto s'étend sur le territoire de trois communes des pièves de Rostino et Vallerustie en Castagniccia, qui sont, du nord au sud, Gavignano (61,09 ha), Saliceto (85,834 8 ha), et Aiti (16,753 7 ha). 
 Elle occupe le nord-ouest d'un chaînon montagneux secondaire s'articulant au niveau de la Punta di Caldane (1 724 m), sur la chaîne principale du massif schisteux du Monte San Petrone. Ce chaînon isole la Castagniccia occidentale de la région cortenaise et du Bozio.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Pineto</t>
+          <t>Forêt_de_Pineto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,18 +560,11 @@
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Pineto est concernée par :
-ZNIEFF
-Forêt de Pineto
-La ZNIEFF de 2e génération « Forêt de Pineto » a une superficie 1 000 ha, couverte majoritairement de forêts de conifères et de forêts de chênes verts. L'intérêt de la zone est marqué par la présence de l'Autour des palombes (Accipiter gentilis (Linnaeus, 1758)), une espèce déterminante.
-La zone est inscrite à l'Inventaire national du patrimoine naturel sous la fiche 940004147 - Forêt de Pineto[2].
-Natura 2000
-Zone de Protection Spéciale (Dir. Oiseaux)
-Forêts Territoriales de Corse
-La forêt de Pineto à peuplement pur de Pins maritimes sur une petite surface, fait partie de la zone qui couvre une superficie totale de 13 223 ha.
-Cette zone est inscrite à l'Inventaire national du patrimoine naturel sous la fiche FR9410113 - Forêts Territoriales de Corse[3].
 </t>
         </is>
       </c>
@@ -568,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Pineto</t>
+          <t>Forêt_de_Pineto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +590,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ZNIEFF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêt de Pineto
+La ZNIEFF de 2e génération « Forêt de Pineto » a une superficie 1 000 ha, couverte majoritairement de forêts de conifères et de forêts de chênes verts. L'intérêt de la zone est marqué par la présence de l'Autour des palombes (Accipiter gentilis (Linnaeus, 1758)), une espèce déterminante.
+La zone est inscrite à l'Inventaire national du patrimoine naturel sous la fiche 940004147 - Forêt de Pineto.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Natura 2000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Zone de Protection Spéciale (Dir. Oiseaux)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêts Territoriales de Corse
+La forêt de Pineto à peuplement pur de Pins maritimes sur une petite surface, fait partie de la zone qui couvre une superficie totale de 13 223 ha.
+Cette zone est inscrite à l'Inventaire national du patrimoine naturel sous la fiche FR9410113 - Forêts Territoriales de Corse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Pineto qui est inhabitée, est gérée par l'ONF. Son identifiant est F24216J.
 Elle est divisée en séries. 64 ha sont en série de production de bois, et 97 ha en série sylvo-pastorale.
@@ -595,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt n'est traversée par aucune route. Seules des pistes forestières permettent d'y circuler aux seules personnes autorisées (exploitation de la forêt, sa surveillance, lutte contre les incendies, etc.).
 L'accès se fait par la route D238 depuis le lieu-dit Fornelli.
@@ -627,33 +720,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Essences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les essences présentes à Pineto sont[1] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les essences présentes à Pineto sont :
 Pin maritime : 89%.
 Arbousier : 9%
 Cyprès Arizona 1%
@@ -661,31 +756,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Faune</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La faune sauvage est remarquable avec l'Autour des palombes (Accipiter gentilis (Linnaeus, 1758)).
 La zone comporte également 53 espèces intéressantes : faune (batraciens, mammifères, oiseaux) et flore (dont les trois espèces endémiques strictes Cistus creticus var. corsicus (Loisel.) Greuter, 1967, le Genêt de Corse (Genista corsica (Loisel.) DC., 1815) et le Peucédan de Corse (Peucedanum paniculatum Loisel., 1807).
@@ -693,31 +790,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Pineto</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Dangers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Pineto est très vulnérable au feu. Aussi, des citernes d'eau sont disposées par l'ONF pour lutter contre les incendies.
 </t>
